--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3467.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3467.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.225304942684397</v>
+        <v>0.9416471719741821</v>
       </c>
       <c r="B1">
-        <v>1.556972819167869</v>
+        <v>1.462187647819519</v>
       </c>
       <c r="C1">
-        <v>2.272482478525574</v>
+        <v>4.962259769439697</v>
       </c>
       <c r="D1">
-        <v>7.374602848895834</v>
+        <v>2.549798250198364</v>
       </c>
       <c r="E1">
-        <v>3.869139117071922</v>
+        <v>0.3758462369441986</v>
       </c>
     </row>
   </sheetData>
